--- a/discount sample data.xlsx
+++ b/discount sample data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\IT &amp; Data\Power BI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8D0276-C142-4E24-96EE-7AAD1DCC68E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5E09EE-9C64-4D78-AAA9-8FD5AE41CDBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{07B654DB-D993-4C11-8EB8-DB0A96F32D52}"/>
+    <workbookView xWindow="12105" yWindow="795" windowWidth="25830" windowHeight="14445" activeTab="1" xr2:uid="{07B654DB-D993-4C11-8EB8-DB0A96F32D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="27">
-  <si>
-    <t>Override</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="26">
   <si>
     <t>Column1</t>
   </si>
@@ -93,12 +90,6 @@
     <t>Customer</t>
   </si>
   <si>
-    <t>Product_UOM</t>
-  </si>
-  <si>
-    <t>Uplift%</t>
-  </si>
-  <si>
     <t>Customer1</t>
   </si>
   <si>
@@ -118,6 +109,12 @@
   </si>
   <si>
     <t>Percent %</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Lookup Result</t>
   </si>
 </sst>
 </file>
@@ -221,9 +218,9 @@
   <autoFilter ref="A1:D43" xr:uid="{3A3AE0E7-2426-48B5-9C87-796E0AFEDE8C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{87514701-7195-45A8-BE92-CB88E12F6034}" name="Customer" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{03E71FBA-6D02-491E-BD99-7F34D7EDAD0A}" name="Product_UOM" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{1E0BF1C4-6661-4FA9-9201-12A9C37E97FC}" name="Override"/>
-    <tableColumn id="4" xr3:uid="{1DDAEEA7-A672-4754-A105-16E7C51E47D0}" name="Uplift%"/>
+    <tableColumn id="2" xr3:uid="{03E71FBA-6D02-491E-BD99-7F34D7EDAD0A}" name="Product" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{1E0BF1C4-6661-4FA9-9201-12A9C37E97FC}" name="Lookup Result"/>
+    <tableColumn id="4" xr3:uid="{1DDAEEA7-A672-4754-A105-16E7C51E47D0}" name="Percent %"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -548,8 +545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01A8965-FE23-4499-B2F8-B9A6F66DAFB5}">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,52 +559,52 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -668,54 +665,54 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -762,10 +759,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -812,10 +809,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -862,10 +859,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -912,10 +909,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -962,10 +959,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1022,15 +1019,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7B30555-C225-44C6-A99B-AB485B148382}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
@@ -1050,24 +1047,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>10</v>
@@ -1078,10 +1075,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>11</v>
@@ -1092,10 +1089,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -1106,10 +1103,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>13</v>
@@ -1120,10 +1117,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6">
         <v>14</v>
@@ -1134,10 +1131,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C7">
         <v>15</v>
@@ -1148,10 +1145,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -1162,10 +1159,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -1176,10 +1173,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>11</v>
@@ -1190,10 +1187,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>12</v>
@@ -1204,10 +1201,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>13</v>
@@ -1218,10 +1215,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>14</v>
@@ -1232,10 +1229,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>15</v>
@@ -1246,10 +1243,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>16</v>
@@ -1260,10 +1257,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -1274,10 +1271,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -1288,10 +1285,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
       </c>
       <c r="C18">
         <v>12</v>
@@ -1302,10 +1299,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
       </c>
       <c r="C19">
         <v>13</v>
@@ -1316,10 +1313,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>23</v>
       </c>
       <c r="C20">
         <v>14</v>
@@ -1330,10 +1327,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>23</v>
       </c>
       <c r="C21">
         <v>15</v>
@@ -1344,10 +1341,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
       </c>
       <c r="C22">
         <v>16</v>
@@ -1358,10 +1355,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C23">
         <v>10</v>
@@ -1372,10 +1369,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C24">
         <v>11</v>
@@ -1386,10 +1383,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25">
         <v>12</v>
@@ -1400,10 +1397,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26">
         <v>13</v>
@@ -1414,10 +1411,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <v>14</v>
@@ -1428,10 +1425,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1442,10 +1439,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -1456,10 +1453,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>10</v>
@@ -1470,10 +1467,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C31">
         <v>11</v>
@@ -1484,10 +1481,10 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C32">
         <v>12</v>
@@ -1498,10 +1495,10 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C33">
         <v>13</v>
@@ -1512,10 +1509,10 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C34">
         <v>14</v>
@@ -1526,10 +1523,10 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>15</v>
@@ -1540,10 +1537,10 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B36" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>16</v>
@@ -1554,10 +1551,10 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C37">
         <v>10</v>
@@ -1568,10 +1565,10 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>11</v>
@@ -1582,10 +1579,10 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B39" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C39">
         <v>12</v>
@@ -1596,10 +1593,10 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B40" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C40">
         <v>13</v>
@@ -1610,10 +1607,10 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C41">
         <v>14</v>
@@ -1624,10 +1621,10 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B42" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C42">
         <v>15</v>
@@ -1638,10 +1635,10 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C43">
         <v>16</v>
